--- a/medicine/Enfance/Agnès_de_Lestrade/Agnès_de_Lestrade.xlsx
+++ b/medicine/Enfance/Agnès_de_Lestrade/Agnès_de_Lestrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_de_Lestrade</t>
+          <t>Agnès_de_Lestrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agnès de Lestrade, née le 27 septembre 1964, est une écrivaine française, autrice d'ouvrages pour la jeunesse et de livres-jeux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_de_Lestrade</t>
+          <t>Agnès_de_Lestrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agnès de Lestrade habite en Gironde et est mère de deux enfants[1].
-Son premier ouvrage,  La petite fille qui ne voulait plus cracher, illustré par Magali Bonniol, paraît en 2003. Elle écrit des romans jeunesse et adolescence, ainsi que des textes pour des albums jeunesse, illustrés par de nombreux illustrateurs : Claire Degans, Gaëtan Dorémus, Charlotte des Ligneris ou Vincent Mathy. Pour la quasi-totalité des albums qu'elle écrit, ce sont ses divers éditeurs (Nathan, Milan Jeunesse, Sarbacane, Alice Jeunesse, L'Atelier du poisson soluble, etc.) qui les choisissent[2].
-En 2007, elle rencontre Martine Perrin, qui lui demande un texte à illustrer ; Agnès de Lestrade lui propose d'illustrer pour la première fois un texte narratif, Le parapluie de Madame Hô publié en 2007[2].
-Elle écrit essentiellement dans son lit, ou dans les trains[3]. Pour son inspiration, elle précise que ses histoires « commencent par un titre et je construis toute l’histoire en tirant le fil[3]. » Un de ses ouvrages qui lui tient particulièrement à cœur est Le Rêve de Léon, illustré par Kumiko Yamamoto, et paru aux éditions Tourbillon en 2005. Elle déclare : « Il a une place à part... Parce qu’il suscite beaucoup de discussion dans les classes (souvent les adultes le détestent et les enfants rient beaucoup. [...]) Parce qu’il parle de la gravité de la vie, mais qu’il en rit aussi. Il est sur le fil du rasoir. Il a peu de mots. [...] Ce petit garçon continue à me toucher et à m’accompagner[3]. » 
-Elle s'inspire d'animaux pour ses personnages[2], et de la nature[3].
-Elle a publié plusieurs dizaines d'ouvrages, et de nombreux textes publiés dans des revues jeunesse (J'aime lire, Dlire, ou Je bouquine[2]), textes illustrés eux aussi. Trois de ses publications ont reçu le Prix des Incorruptibles. Ses ouvrages sont traduits dans plusieurs langues[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agnès de Lestrade habite en Gironde et est mère de deux enfants.
+Son premier ouvrage,  La petite fille qui ne voulait plus cracher, illustré par Magali Bonniol, paraît en 2003. Elle écrit des romans jeunesse et adolescence, ainsi que des textes pour des albums jeunesse, illustrés par de nombreux illustrateurs : Claire Degans, Gaëtan Dorémus, Charlotte des Ligneris ou Vincent Mathy. Pour la quasi-totalité des albums qu'elle écrit, ce sont ses divers éditeurs (Nathan, Milan Jeunesse, Sarbacane, Alice Jeunesse, L'Atelier du poisson soluble, etc.) qui les choisissent.
+En 2007, elle rencontre Martine Perrin, qui lui demande un texte à illustrer ; Agnès de Lestrade lui propose d'illustrer pour la première fois un texte narratif, Le parapluie de Madame Hô publié en 2007.
+Elle écrit essentiellement dans son lit, ou dans les trains. Pour son inspiration, elle précise que ses histoires « commencent par un titre et je construis toute l’histoire en tirant le fil. » Un de ses ouvrages qui lui tient particulièrement à cœur est Le Rêve de Léon, illustré par Kumiko Yamamoto, et paru aux éditions Tourbillon en 2005. Elle déclare : « Il a une place à part... Parce qu’il suscite beaucoup de discussion dans les classes (souvent les adultes le détestent et les enfants rient beaucoup. [...]) Parce qu’il parle de la gravité de la vie, mais qu’il en rit aussi. Il est sur le fil du rasoir. Il a peu de mots. [...] Ce petit garçon continue à me toucher et à m’accompagner. » 
+Elle s'inspire d'animaux pour ses personnages, et de la nature.
+Elle a publié plusieurs dizaines d'ouvrages, et de nombreux textes publiés dans des revues jeunesse (J'aime lire, Dlire, ou Je bouquine), textes illustrés eux aussi. Trois de ses publications ont reçu le Prix des Incorruptibles. Ses ouvrages sont traduits dans plusieurs langues.
 Ses principaux succès sont l'album jeunesse La Grande Fabrique de mots, illustré par Valeria Docampo, paru en 2009, et le roman ado Il faisait chaud cet été-là, publié en 2013.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_de_Lestrade</t>
+          <t>Agnès_de_Lestrade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,20 +562,56 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Années 2000
-La petite fille qui ne voulait plus cracher, ill. de Magali Bonniol, L’école des loisirs, 2003
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agnès_de_Lestrade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_de_Lestrade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La petite fille qui ne voulait plus cracher, ill. de Magali Bonniol, L’école des loisirs, 2003
 Le livre qui rend chèvre, ill. de Aliocha Blau, Nathan, 2004
-La plage du prince Blanc, ill. Isabelle Petit-Jean, Nathan, 2004[4]
-Attention ! Dauphins en danger, Nathan, 2005[5]
+La plage du prince Blanc, ill. Isabelle Petit-Jean, Nathan, 2004
+Attention ! Dauphins en danger, Nathan, 2005
 L'arbre à pluie, illustrations de Claire Degans, Milan jeunesse, 2005
 Lili Calisson et l'horrible monstre vert, ill. Xavier Deneux, Milan jeunesse, 2005
 Le plus gentil loup du monde, ill. Constanza Bravo, la Joie de lire, 2005
 Le rêve de Léon, ill. Kumiko Yamamoto, Tourbillon, 2005
 Petit ogre veut un chien, ill. de Gaëtan Dorémus, Nathan, 2005
-Le Phare de la peur, Nathan, 2006[6]
+Le Phare de la peur, Nathan, 2006
 Un amour de loup, illustrations de Christian Guibbaud, Éd. Milan, 2006
 C'est peut-être ça être amoureux, ill. Laurent Audouin, Milan, 2006  Prix des Incorruptibles 2008 Catégorie Maternelle.
 L'enfant qui mangeait les nuages, ill. Aurélia Fronty, Éd. du Rouergue, 2006
@@ -575,26 +625,60 @@
 Qui vient nous garder ce soir ? , ill. Clarisse Galan-Galléa, Éd. Lito, 2006
 Le sac à sorcière, illustrations de Robin, Nathan, 2006
 Vache academy, illustrations d'Éric Gasté, Milan poche, 2006
-Menace sur Madagascar, Nathan, 2007[7]
+Menace sur Madagascar, Nathan, 2007
 Le parapluie de madame Hô, illustrations Martine Perrin, Milan jeunesse, 2007
- La ceinture de feu, ill. Delphine Jacquot, Gautier-Languereau, 2007  Coup de cœur 2008 du Centre national de la littérature pour la jeunesse[8]
+ La ceinture de feu, ill. Delphine Jacquot, Gautier-Languereau, 2007  Coup de cœur 2008 du Centre national de la littérature pour la jeunesse
 L’Abécédaire à croquer : Manuel à l’usage des petits loups, ill. Dankerleroux, Milan Jeunesse, 2008 Prix des incorruptibles 2008, Catégorie CM2.
 Les Espoirs de Bouba, ill. Tom Schamp, Sarbacane, 2008
 L'Abécédaire des super-héros, ill. Cristian Turdera, Milan Jeunesse, 2009
 La Grande Fabrique de mots, ill. Valeria Docampo, Alice jeunesse, 2009
 L'envol du hérisson, illustrations Charlotte des Ligneris, Éd. du Rouergue, 2009
-Jour papillon ou jour hérisson ?, ill. Vincent Mathy, A. Michel jeunesse, 2009
-Années 2010
-Un Indien dans mon jardin, Rouergue, 2010 Prix Tatou 2012.
+Jour papillon ou jour hérisson ?, ill. Vincent Mathy, A. Michel jeunesse, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agnès_de_Lestrade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_de_Lestrade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un Indien dans mon jardin, Rouergue, 2010 Prix Tatou 2012.
 L’abécédaire de la famille, ill. Valeria Petrone, Milan Jeunesse, 2010
 Mon cœur n’oublie jamais, ill. Violaine Marlange, Rouergue, 2010
 Mes bêtises préférées, ill. Joao Vaz de Carvalho, L'Atelier du poisson soluble, 2010
 Les étoiles dans le cœur, ill. Laurent Richard, Milan Jeunesse, 2010 Prix des incorruptibles 2010, Catégorie CE1.
 Les trois petits cochons, ill. Sylvie Bessard, Milan Jeunesse, 2010
 La vie sans moi, ill. Sylvie Serprix, MicMac, 2010
-Pirates en péril !, Nathan, 2011[9]
+Pirates en péril !, Nathan, 2011
 Le Grand Distributeur de temps, ill. Amélie Thiébaud, Mic Mac, 2011
-Le jour où j’ai abandonné mes parents, Rouergue, 2011  Coup de cœur 2011 du Centre national de la littérature pour la jeunesse (BnF)[10]
+Le jour où j’ai abandonné mes parents, Rouergue, 2011  Coup de cœur 2011 du Centre national de la littérature pour la jeunesse (BnF)
 Les Baisers de Cornélius, ill. Charlotte Cottereau, Sarbacane, 2011
 Pinpon les poussins !, ill. Eric Gasté, coll. Milan poche Benjamin, Milan Jeunesse 2011
 Tout le monde veut voir la mer, ill. Nathalie Choux, Rouergue, 2011
@@ -623,7 +707,7 @@
 La Grande Aventure du Petit Tout, Sarbacane, novembre 2014
 Petit ogre veut un chien, ill. de Fabienne Cinquin, la Poule qui pond édition, 2014
 Mon amoureux de la lune, ill. Amandine Laprun, Oskar éditeur, 2015
-Le Petit Théâtre de La Fontaine : 8 fables à jouer masqués, illustré par Gloria Pizzili, Seuil, 2015 Coup de cœur 2016 du Centre national de la littérature pour la jeunesse (BnF)[11]
+Le Petit Théâtre de La Fontaine : 8 fables à jouer masqués, illustré par Gloria Pizzili, Seuil, 2015 Coup de cœur 2016 du Centre national de la littérature pour la jeunesse (BnF)
 Mais qui est derrière moi ?, ill Cécile Gambini, la Poule qui pond édition, 2016
 Le chien-chien à sa mémère, avec Clothilde Delacroix, Sarbacane, 2016
 Sans papier, Bulles de savon, 2017
@@ -637,41 +721,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agn%C3%A8s_de_Lestrade</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agnès_de_Lestrade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_de_Lestrade</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liste non exhaustive
-Coup de cœur 2008 du Centre national de la littérature pour la jeunesse (BnF) pour La Ceinture de feu, illustré par Delphine Jacquot[8]
+Coup de cœur 2008 du Centre national de la littérature pour la jeunesse (BnF) pour La Ceinture de feu, illustré par Delphine Jacquot
 Prix des Incorruptibles 2008 Catégorie Maternelle, pour C'est peut-être ça être amoureux, ill. Laurent Audouin
 Prix des Incorruptibles 2010 Catégorie CM2, pour L’abécédaire à croquer : manuel à l’usage des petits loups, ill. Dankerleroux
 Prix des Incorruptibles 2010 Catégorie CE1, pour Les étoiles dans le cœur, ill. Laurent Richard
-Coup de cœur 2011 du Centre national de la littérature pour la jeunesse (BnF) pour Le Jour où j'ai abandonné mes parents[10]
+Coup de cœur 2011 du Centre national de la littérature pour la jeunesse (BnF) pour Le Jour où j'ai abandonné mes parents
 Prix Tatou 2012 pour Un indien dans mon jardin
 Prix Coup de Pouce des Premières Lectures (PCPPL) 2012, pour Tu es trop grand Georges !, ill. Sylvie Bessard, éd. Nathan
-Coup de cœur 2016 du Centre national de la littérature pour la jeunesse (BnF) pour Le Petit Théâtre de La Fontaine : 8 fables à jouer masqués, illustré par Gloria Pizzili[11]</t>
+Coup de cœur 2016 du Centre national de la littérature pour la jeunesse (BnF) pour Le Petit Théâtre de La Fontaine : 8 fables à jouer masqués, illustré par Gloria Pizzili</t>
         </is>
       </c>
     </row>
